--- a/resources/Assignment 04 - Q1.xlsx
+++ b/resources/Assignment 04 - Q1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5972/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206321" documentId="13_ncr:1_{473AB41D-9499-4614-8782-18C887534910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E511B9A-9E0B-47F0-8F56-BAED8F64A0E3}"/>
+  <xr:revisionPtr revIDLastSave="211316" documentId="13_ncr:1_{473AB41D-9499-4614-8782-18C887534910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{169615D0-E138-4858-BE3E-C698B4B93274}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{62CB80FF-E0D7-4B5D-A842-DDDB899F1514}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{62CB80FF-E0D7-4B5D-A842-DDDB899F1514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,11 +181,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,846 +528,846 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B029904C-B882-44CB-BB08-05A3C8BB6961}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46:H48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1.3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1.08</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.99</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1.38</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1.39</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1.33</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1.8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1.48</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1.17</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1.07</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2.23</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1.41</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1.83</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1.43</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1.28</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
-        <v>1.63</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.86</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.94</v>
+      <c r="C8" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.03</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
-        <v>1.79</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.24</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>13</v>
+      </c>
+      <c r="B26" s="4">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>15</v>
+      </c>
+      <c r="B29" s="4">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="D29" s="2">
         <v>1.31</v>
       </c>
-      <c r="E9" s="3">
-        <v>1.29</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="E29" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2">
         <v>1.58</v>
       </c>
-      <c r="D10" s="3">
-        <v>1.57</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D31" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>17</v>
+      </c>
+      <c r="B33" s="4">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>18</v>
+      </c>
+      <c r="B34" s="4">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>18</v>
+      </c>
+      <c r="B35" s="4">
+        <v>23</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>19</v>
+      </c>
+      <c r="B36" s="4">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="E36" s="2">
         <v>1.35</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>19</v>
+      </c>
+      <c r="B37" s="4">
+        <v>24</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>20</v>
+      </c>
+      <c r="B38" s="4">
+        <v>25</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>21</v>
+      </c>
+      <c r="B39" s="4">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>22</v>
+      </c>
+      <c r="B40" s="4">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>23</v>
+      </c>
+      <c r="B41" s="4">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="2">
         <v>1.31</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1.33</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="E41" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>24</v>
+      </c>
+      <c r="B42" s="4">
+        <v>25</v>
+      </c>
+      <c r="C42" s="2">
         <v>1.7</v>
       </c>
-      <c r="E14" s="3">
-        <v>1.46</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>7</v>
-      </c>
-      <c r="B15" s="5">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1.39</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1.69</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1.28</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1.96</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1.73</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.55</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1.39</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1.17</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>9</v>
-      </c>
-      <c r="B19" s="5">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1.33</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1.69</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D42" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="E42" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>11</v>
-      </c>
-      <c r="B21" s="5">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.54</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1.18</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>11</v>
-      </c>
-      <c r="B22" s="5">
-        <v>16</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1.56</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1.55</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>12</v>
-      </c>
-      <c r="B23" s="5">
-        <v>13</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1.43</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1.77</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1.18</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>12</v>
-      </c>
-      <c r="B24" s="5">
-        <v>17</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1.58</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>13</v>
-      </c>
-      <c r="B25" s="5">
-        <v>14</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1.84</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1.67</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>13</v>
-      </c>
-      <c r="B26" s="5">
-        <v>18</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>14</v>
-      </c>
-      <c r="B27" s="5">
-        <v>15</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1.53</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1.74</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1.33</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>14</v>
-      </c>
-      <c r="B28" s="5">
-        <v>19</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1.98</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>15</v>
-      </c>
-      <c r="B29" s="5">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1.98</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>16</v>
-      </c>
-      <c r="B30" s="5">
-        <v>17</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1.34</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1.77</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>16</v>
-      </c>
-      <c r="B31" s="5">
-        <v>21</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1.47</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1.56</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>17</v>
-      </c>
-      <c r="B32" s="5">
-        <v>18</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1.33</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1.43</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1.49</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>17</v>
-      </c>
-      <c r="B33" s="5">
-        <v>22</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1.31</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1.54</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>18</v>
-      </c>
-      <c r="B34" s="5">
-        <v>19</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1.66</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1.28</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>18</v>
-      </c>
-      <c r="B35" s="5">
-        <v>23</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1.32</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1.31</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1.33</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>19</v>
-      </c>
-      <c r="B36" s="5">
-        <v>20</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1.66</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>19</v>
-      </c>
-      <c r="B37" s="5">
-        <v>24</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1.63</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1.26</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>20</v>
-      </c>
-      <c r="B38" s="5">
-        <v>25</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1.02</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>21</v>
-      </c>
-      <c r="B39" s="5">
-        <v>22</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1.44</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1.48</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1.38</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>22</v>
-      </c>
-      <c r="B40" s="5">
-        <v>23</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1.39</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1.49</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>23</v>
-      </c>
-      <c r="B41" s="5">
-        <v>24</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1.36</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>24</v>
-      </c>
-      <c r="B42" s="5">
-        <v>25</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1.39</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1.66</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1.1499999999999999</v>
-      </c>
       <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -1382,55 +1381,55 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
         <f>SUMPRODUCT(C3:C42, $F$3:$F$42)</f>
-        <v>11.530000000000001</v>
+        <v>13.21</v>
       </c>
       <c r="C46" s="2">
         <f>SUMPRODUCT(D3:D42, $F$3:$F$42)</f>
-        <v>12.47</v>
+        <v>10.690000000000001</v>
       </c>
       <c r="D46" s="2">
         <f>SUMPRODUCT(E3:E42, $F$3:$F$42)</f>
-        <v>8.16</v>
+        <v>8.9400000000000013</v>
       </c>
       <c r="F46" s="2">
-        <v>9.6399999999999988</v>
+        <v>10.53</v>
       </c>
       <c r="G46" s="2">
-        <v>13.47</v>
+        <v>13.57</v>
       </c>
       <c r="H46" s="2">
-        <v>10.26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10.549999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F47" s="2">
-        <v>14.049999999999999</v>
+        <v>14.239999999999998</v>
       </c>
       <c r="G47" s="2">
-        <v>10.01</v>
+        <v>10.5</v>
       </c>
       <c r="H47" s="2">
-        <v>9.32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.5400000000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F48" s="2">
-        <v>11.530000000000001</v>
+        <v>13.21</v>
       </c>
       <c r="G48" s="2">
-        <v>12.47</v>
+        <v>10.690000000000001</v>
       </c>
       <c r="H48" s="2">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8.9400000000000013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
@@ -1438,7 +1437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <f>F3</f>
         <v>1</v>
@@ -1457,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <f>F5</f>
         <v>1</v>
@@ -1467,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <f>F7</f>
         <v>0</v>
@@ -1477,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <f>F9</f>
         <v>0</v>
@@ -1487,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <f>F4</f>
         <v>0</v>
@@ -1497,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <f>F6 + F12</f>
         <v>0</v>
@@ -1507,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <f>F8 + F14</f>
         <v>1</v>
@@ -1517,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <f>F10 + F16</f>
         <v>1</v>
@@ -1527,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <f>F11 + F18</f>
         <v>0</v>
@@ -1537,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <f>F13</f>
         <v>0</v>
@@ -1547,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <f>F15 + F21</f>
         <v>0</v>
@@ -1557,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <f>F17 + F23</f>
         <v>0</v>
@@ -1567,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <f>F19 + F25</f>
         <v>1</v>
@@ -1577,17 +1576,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <f>F20 + F27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" s="2">
         <f>F29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <f>F22</f>
         <v>0</v>
@@ -1597,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <f>F24 + F30</f>
         <v>0</v>
@@ -1607,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <f>F26 + F32</f>
         <v>0</v>
@@ -1617,17 +1616,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <f>F28 + F34</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="2">
         <f>F36 + F37</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <f>F29 + F36</f>
         <v>1</v>
@@ -1637,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <f>F31</f>
         <v>0</v>
@@ -1647,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <f>F33 + F39</f>
         <v>0</v>
@@ -1657,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <f>F35 + F40</f>
         <v>0</v>
@@ -1667,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <f>F37 + F41</f>
         <v>0</v>
@@ -1677,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <f>F38 + F42</f>
         <v>1</v>
